--- a/results/mp/deberta/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-0.35/avg_0.004_scores.xlsx
@@ -91,22 +91,22 @@
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>relief</t>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1050,25 +1050,25 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6551724137931034</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L17">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1076,25 +1076,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6521739130434783</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1154,25 +1154,25 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5644171779141104</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1180,25 +1180,25 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5614035087719298</v>
+        <v>0.5411764705882353</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="10:17">
